--- a/Lamia/DBASE/create/Base2_digue_0_1.xlsx
+++ b/Lamia/DBASE/create/Base2_digue_0_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="675">
   <si>
     <t>00_Basedonnees</t>
   </si>
@@ -235,9 +235,6 @@
     <t>10_auth_user'!A1</t>
   </si>
   <si>
-    <t>#DJAN</t>
-  </si>
-  <si>
     <t>#QGIS</t>
   </si>
   <si>
@@ -305,12 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">      PRO</t>
-  </si>
-  <si>
-    <t>SELECT Desordre.* , Objet.* FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet WHERE Objet.lpk_revision_end IS NULL  AND Objet.datetimedestruction IS NULL</t>
-  </si>
-  <si>
-    <t>SELECT  Desordre.* , Objet.* FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet</t>
   </si>
   <si>
     <t>groupedesordre</t>
@@ -2443,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,204 +2783,204 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B24" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -3014,58 +3005,58 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3076,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,215 +3084,219 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>674</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F9" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>128</v>
@@ -3309,54 +3304,54 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>141</v>
@@ -3364,108 +3359,108 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>103</v>
+      <c r="G29" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>163</v>
@@ -3473,633 +3468,611 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F39" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F42" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
       <c r="F47" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
       <c r="F48" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="F49" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
       <c r="F50" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="F51" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
       <c r="F53" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F56" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F57" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F58" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G58" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F59" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F61" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F62" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F63" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F64" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G83" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G91" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4129,266 +4102,266 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="F17" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="F20" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4396,270 +4369,270 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G35" s="1">
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4689,868 +4662,868 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F32" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F38" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F39" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F42" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F48" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F51" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F53" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F66" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F67" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F69" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F70" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F71" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F72" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F76" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G76" s="5">
         <v>2</v>
@@ -5558,7 +5531,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F77" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -5566,7 +5539,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F78" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G78" s="5">
         <v>0</v>
@@ -5574,221 +5547,221 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F81" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F82" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F83" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F84" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F85" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F86" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F88" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F89" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F90" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F91" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F92" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F93" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F94" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F95" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F96" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F97" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F98" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5820,54 +5793,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -5875,7 +5848,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -5883,7 +5856,7 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G6" s="5">
         <v>2</v>
@@ -5891,7 +5864,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G7" s="5">
         <v>3</v>
@@ -5899,25 +5872,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5925,7 +5898,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="F10" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -5936,7 +5909,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="F11" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -5947,7 +5920,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -5958,7 +5931,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
@@ -5966,64 +5939,64 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6050,74 +6023,74 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -6142,707 +6115,707 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="F4" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="F5" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="F6" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="F7" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="F9" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="F10" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="F11" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F33" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F34" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F36" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F37" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F38" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F40" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F41" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="8" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="8" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="8" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F65" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F66" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F67" s="8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F68" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F69" s="8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F70" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F71" s="8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" s="8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F73" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F74" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F75" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F77" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F78" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F80" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6869,92 +6842,92 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
